--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
@@ -25,7 +25,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>改訂者</t>
@@ -35,7 +35,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>画面項目</t>
@@ -45,18 +45,18 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>text</t>
@@ -75,14 +75,14 @@
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>該当数</t>
@@ -92,7 +92,7 @@
     <rPh sb="2" eb="3">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実装内容</t>
@@ -102,7 +102,7 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>値設定</t>
@@ -112,25 +112,25 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クリック</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選択(index)</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選択(value)</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>textarea</t>
@@ -167,21 +167,21 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>単体</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>複数</t>
     <rPh sb="0" eb="2">
       <t>フクスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>その他</t>
@@ -209,14 +209,14 @@
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成者</t>
@@ -226,15 +226,15 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HTMLタイトル</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HTML項目定義</t>
@@ -244,29 +244,29 @@
     <rPh sb="6" eb="8">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選択(text)</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>値取得(value)</t>
@@ -276,7 +276,7 @@
     <rPh sb="1" eb="3">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>値取得(text)</t>
@@ -286,6 +286,21 @@
     <rPh sb="1" eb="3">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -302,13 +317,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -339,8 +347,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -464,90 +485,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,16 +607,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>11</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57977</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>192916</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>19500</xdr:rowOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>117598</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>21155</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -588,7 +625,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1061"/>
+                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -602,8 +639,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="11" y="0"/>
-              <a:ext cx="10088552" cy="286200"/>
+              <a:off x="57989" y="57977"/>
+              <a:ext cx="10545392" cy="286200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -915,134 +952,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M6"/>
+  <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="13" width="10.375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <f>ROW()-5</f>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="20">
+        <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N9" s="21" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:N9">
+      <formula1>",○"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;C&amp;8- &amp;P-1 -</oddFooter>
@@ -1056,19 +1127,19 @@
           <x14:formula1>
             <xm:f>setting!$B$3:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>setting!$C$3:$C$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D6</xm:sqref>
+          <xm:sqref>E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>setting!$D$3:$D$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F6</xm:sqref>
+          <xm:sqref>G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1081,7 +1152,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1091,55 +1162,55 @@
     <col min="3" max="3" width="27.875" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -1151,7 +1222,7 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -1324,7 +1395,7 @@
       <c r="D21" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7days\git\SeleniumTestUtils\src\gen\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21555" windowHeight="10530"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21552" windowHeight="10536"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Header" sheetId="4" r:id="rId2"/>
     <sheet name="setting" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
@@ -74,13 +79,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -119,20 +117,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>選択(index)</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>選択(value)</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>textarea</t>
   </si>
   <si>
@@ -262,33 +246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>選択(text)</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値取得(value)</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値取得(text)</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -302,12 +259,75 @@
   <si>
     <t>SYSTEM</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>値取得
+(value)</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値取得
+(text)</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択
+(index)</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択
+(value)</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択
+(text)</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,80 +531,89 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,6 +625,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -610,13 +642,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>11</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>57977</xdr:rowOff>
+          <xdr:rowOff>50357</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>117598</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>158350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>21155</xdr:rowOff>
+          <xdr:rowOff>33129</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -625,7 +657,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1082"/>
+                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1090"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -639,8 +671,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="57989" y="57977"/>
-              <a:ext cx="10545392" cy="286200"/>
+              <a:off x="53020" y="50357"/>
+              <a:ext cx="9474617" cy="274320"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -666,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,7 +740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +773,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -952,163 +1018,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N9"/>
+  <dimension ref="B1:O8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="1" customWidth="1"/>
+    <col min="8" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="26" t="s">
+    <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:15" ht="4.2" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="B7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="24" t="s">
+      <c r="L7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="2:14" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="20">
-        <f>ROW()-8</f>
+      <c r="N7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="12">
+        <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>41</v>
+      <c r="E8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="K5:O5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:N9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:O8">
       <formula1>",○"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1127,19 +1199,19 @@
           <x14:formula1>
             <xm:f>setting!$B$3:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D9</xm:sqref>
+          <xm:sqref>E8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>setting!$C$3:$C$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E9</xm:sqref>
+          <xm:sqref>F8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>setting!$D$3:$D$21</xm:f>
           </x14:formula1>
-          <xm:sqref>G9</xm:sqref>
+          <xm:sqref>H8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1155,62 +1227,62 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26"/>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -1236,17 +1308,17 @@
   <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1254,15 +1326,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="9.6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1270,126 +1342,126 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>

--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -657,7 +657,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1090"/>
+                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1094"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1021,7 +1021,7 @@
   <dimension ref="B1:O8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>

--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7days\git\SeleniumTestUtils\src\gen\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21552" windowHeight="10536"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21555" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Header" sheetId="4" r:id="rId2"/>
     <sheet name="setting" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$B$2:$R$107</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Main!$2:$7</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="65">
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
@@ -240,10 +239,6 @@
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>#</t>
@@ -323,11 +318,55 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#5</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +600,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,21 +653,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,7 +696,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1094"/>
+                  <a14:cameraTool cellRange="Header!$A$1:$I$2" spid="_x0000_s1118"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -698,7 +737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,26 +812,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,23 +847,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1018,50 +1023,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O8"/>
+  <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="1" customWidth="1"/>
-    <col min="8" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
+    <col min="8" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:15" ht="4.2" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
+      <c r="K5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -1083,48 +1089,48 @@
       <c r="N6" s="7"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="L7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="33" t="s">
+      <c r="N7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
@@ -1133,43 +1139,4498 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="12">
+        <f t="shared" ref="B9:B72" si="0">ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="12">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>38</v>
+      <c r="C48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B61" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B62" s="12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N62" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B63" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B64" s="12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B65" s="12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B66" s="12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B67" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B68" s="12">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M68" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B69" s="12">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L69" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B70" s="12">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M70" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N70" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B71" s="12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M71" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B72" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M72" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N72" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B73" s="12">
+        <f t="shared" ref="B73:B107" si="1">ROW()-7</f>
+        <v>66</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B74" s="12">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B75" s="12">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B76" s="12">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N76" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B77" s="12">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B78" s="12">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N78" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B79" s="12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B80" s="12">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N80" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B81" s="12">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M81" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N81" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B82" s="12">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B83" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N83" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B84" s="12">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L84" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N84" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O84" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B85" s="12">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M85" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B86" s="12">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N86" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B87" s="12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N87" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B88" s="12">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N88" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O88" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B89" s="12">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N89" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B90" s="12">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N90" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O90" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B91" s="12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N91" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B92" s="12">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M92" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N92" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B93" s="12">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M93" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N93" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B94" s="12">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M94" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N94" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O94" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B95" s="12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L95" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N95" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B96" s="12">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L96" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M96" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N96" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O96" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B97" s="12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K97" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L97" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M97" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N97" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O97" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B98" s="12">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M98" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N98" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O98" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B99" s="12">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L99" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M99" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N99" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B100" s="12">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J100" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L100" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M100" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N100" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O100" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B101" s="12">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L101" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M101" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N101" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O101" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B102" s="12">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J102" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M102" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N102" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O102" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B103" s="12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J103" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L103" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B104" s="12">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J104" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K104" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L104" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M104" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N104" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O104" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B105" s="12">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L105" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M105" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N105" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O105" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B106" s="12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K106" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M106" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N106" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O106" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B107" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J107" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K107" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L107" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M107" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N107" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O107" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1180,11 +5641,11 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:O8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:O107">
       <formula1>",○"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.39370078740157483"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
@@ -1195,23 +5656,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>setting!$B$3:$B$21</xm:f>
+            <xm:f>setting!$B$4:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E8</xm:sqref>
+          <xm:sqref>E8:E107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>setting!$C$3:$C$21</xm:f>
+            <xm:f>setting!$C$4:$C$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F8:F107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>setting!$D$3:$D$21</xm:f>
+            <xm:f>setting!$D$4:$D$21</xm:f>
           </x14:formula1>
-          <xm:sqref>H8</xm:sqref>
+          <xm:sqref>H8:H107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1227,19 +5688,19 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -1258,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="8"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
@@ -1275,14 +5736,14 @@
         <v>34</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -1311,14 +5772,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1329,12 +5790,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="9.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="10.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +5806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +5817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +5826,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +5835,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +5844,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +5853,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +5862,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1410,58 +5871,58 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>

--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7days\git\SeleniumTestUtils\src\gen\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21552" windowHeight="10536"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21555" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -309,8 +304,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -494,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,26 +564,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,23 +599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,23 +781,23 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="2" customWidth="1"/>
-    <col min="11" max="18" width="7.33203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="2.6640625" style="2"/>
+    <col min="1" max="1" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
+    <col min="11" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.6" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -860,7 +821,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="21">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -916,7 +877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="10.15" customHeight="1">
       <c r="A3" s="13">
         <f>ROW()-2</f>
         <v>1</v>
@@ -942,13 +903,13 @@
       <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -973,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="10.15" customHeight="1">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A67" si="0">ROW()-2</f>
         <v>2</v>
@@ -999,13 +960,13 @@
       <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="15" t="s">
@@ -1030,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="10.15" customHeight="1">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1056,13 +1017,13 @@
       <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -1087,7 +1048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="10.15" customHeight="1">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1113,13 +1074,13 @@
       <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -1144,7 +1105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="10.15" customHeight="1">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1170,13 +1131,13 @@
       <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="15" t="s">
@@ -1201,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="10.15" customHeight="1">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1227,13 +1188,13 @@
       <c r="H8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="15" t="s">
@@ -1258,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="10.15" customHeight="1">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1284,13 +1245,13 @@
       <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1315,7 +1276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="10.15" customHeight="1">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1341,13 +1302,13 @@
       <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="15" t="s">
@@ -1372,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="10.15" customHeight="1">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1398,13 +1359,13 @@
       <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="15" t="s">
@@ -1429,7 +1390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="10.15" customHeight="1">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1455,13 +1416,13 @@
       <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="15" t="s">
@@ -1486,7 +1447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="10.15" customHeight="1">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1512,13 +1473,13 @@
       <c r="H13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="15" t="s">
@@ -1543,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="10.15" customHeight="1">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1569,13 +1530,13 @@
       <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="15" t="s">
@@ -1600,7 +1561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="10.15" customHeight="1">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1626,13 +1587,13 @@
       <c r="H15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="15" t="s">
@@ -1657,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="10.15" customHeight="1">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1683,13 +1644,13 @@
       <c r="H16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="15" t="s">
@@ -1714,7 +1675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="10.15" customHeight="1">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1740,13 +1701,13 @@
       <c r="H17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L17" s="15" t="s">
@@ -1771,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="10.15" customHeight="1">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1797,13 +1758,13 @@
       <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="15" t="s">
@@ -1828,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="10.15" customHeight="1">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1854,13 +1815,13 @@
       <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="15" t="s">
@@ -1885,7 +1846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="10.15" customHeight="1">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1911,13 +1872,13 @@
       <c r="H20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="15" t="s">
@@ -1942,7 +1903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="10.15" customHeight="1">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1968,13 +1929,13 @@
       <c r="H21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L21" s="15" t="s">
@@ -1999,7 +1960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="10.15" customHeight="1">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2025,13 +1986,13 @@
       <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="15" t="s">
@@ -2056,7 +2017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="10.15" customHeight="1">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2082,13 +2043,13 @@
       <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L23" s="15" t="s">
@@ -2113,7 +2074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="10.15" customHeight="1">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2139,13 +2100,13 @@
       <c r="H24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L24" s="15" t="s">
@@ -2170,7 +2131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="10.15" customHeight="1">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2196,13 +2157,13 @@
       <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L25" s="15" t="s">
@@ -2227,7 +2188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="10.15" customHeight="1">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2253,13 +2214,13 @@
       <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L26" s="15" t="s">
@@ -2284,7 +2245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="10.15" customHeight="1">
       <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2310,13 +2271,13 @@
       <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L27" s="15" t="s">
@@ -2341,7 +2302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="10.15" customHeight="1">
       <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2367,13 +2328,13 @@
       <c r="H28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L28" s="15" t="s">
@@ -2398,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="10.15" customHeight="1">
       <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2424,13 +2385,13 @@
       <c r="H29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L29" s="15" t="s">
@@ -2455,7 +2416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="10.15" customHeight="1">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2481,13 +2442,13 @@
       <c r="H30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L30" s="15" t="s">
@@ -2512,7 +2473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="10.15" customHeight="1">
       <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2538,13 +2499,13 @@
       <c r="H31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L31" s="15" t="s">
@@ -2569,7 +2530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="10.15" customHeight="1">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2595,13 +2556,13 @@
       <c r="H32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L32" s="15" t="s">
@@ -2626,7 +2587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="10.15" customHeight="1">
       <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2652,13 +2613,13 @@
       <c r="H33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L33" s="15" t="s">
@@ -2683,7 +2644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="10.15" customHeight="1">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2709,13 +2670,13 @@
       <c r="H34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L34" s="15" t="s">
@@ -2740,7 +2701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="10.15" customHeight="1">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2766,13 +2727,13 @@
       <c r="H35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L35" s="15" t="s">
@@ -2797,7 +2758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="10.15" customHeight="1">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2823,13 +2784,13 @@
       <c r="H36" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L36" s="15" t="s">
@@ -2854,7 +2815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="10.15" customHeight="1">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2880,13 +2841,13 @@
       <c r="H37" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L37" s="15" t="s">
@@ -2911,7 +2872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="10.15" customHeight="1">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2937,13 +2898,13 @@
       <c r="H38" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L38" s="15" t="s">
@@ -2968,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="10.15" customHeight="1">
       <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2994,13 +2955,13 @@
       <c r="H39" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L39" s="15" t="s">
@@ -3025,7 +2986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="10.15" customHeight="1">
       <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3051,13 +3012,13 @@
       <c r="H40" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L40" s="15" t="s">
@@ -3082,7 +3043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="10.15" customHeight="1">
       <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3108,13 +3069,13 @@
       <c r="H41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L41" s="15" t="s">
@@ -3139,7 +3100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="10.15" customHeight="1">
       <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3165,13 +3126,13 @@
       <c r="H42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L42" s="15" t="s">
@@ -3196,7 +3157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="10.15" customHeight="1">
       <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3222,13 +3183,13 @@
       <c r="H43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="K43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L43" s="15" t="s">
@@ -3253,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="10.15" customHeight="1">
       <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3279,13 +3240,13 @@
       <c r="H44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L44" s="15" t="s">
@@ -3310,7 +3271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="10.15" customHeight="1">
       <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3336,13 +3297,13 @@
       <c r="H45" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L45" s="15" t="s">
@@ -3367,7 +3328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="10.15" customHeight="1">
       <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3393,13 +3354,13 @@
       <c r="H46" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L46" s="15" t="s">
@@ -3424,7 +3385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="10.15" customHeight="1">
       <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3450,13 +3411,13 @@
       <c r="H47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L47" s="15" t="s">
@@ -3481,7 +3442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="10.15" customHeight="1">
       <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3507,13 +3468,13 @@
       <c r="H48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L48" s="15" t="s">
@@ -3538,7 +3499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="10.15" customHeight="1">
       <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3564,13 +3525,13 @@
       <c r="H49" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="K49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L49" s="15" t="s">
@@ -3595,7 +3556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="10.15" customHeight="1">
       <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3621,13 +3582,13 @@
       <c r="H50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L50" s="15" t="s">
@@ -3652,7 +3613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="10.15" customHeight="1">
       <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3678,13 +3639,13 @@
       <c r="H51" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L51" s="15" t="s">
@@ -3709,7 +3670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="10.15" customHeight="1">
       <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3735,13 +3696,13 @@
       <c r="H52" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L52" s="15" t="s">
@@ -3766,7 +3727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="10.15" customHeight="1">
       <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3792,13 +3753,13 @@
       <c r="H53" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L53" s="15" t="s">
@@ -3823,7 +3784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="10.15" customHeight="1">
       <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3849,13 +3810,13 @@
       <c r="H54" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L54" s="15" t="s">
@@ -3880,7 +3841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="10.15" customHeight="1">
       <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3906,13 +3867,13 @@
       <c r="H55" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L55" s="15" t="s">
@@ -3937,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="10.15" customHeight="1">
       <c r="A56" s="13">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3963,13 +3924,13 @@
       <c r="H56" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L56" s="15" t="s">
@@ -3994,7 +3955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="10.15" customHeight="1">
       <c r="A57" s="13">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4020,13 +3981,13 @@
       <c r="H57" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L57" s="15" t="s">
@@ -4051,7 +4012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="10.15" customHeight="1">
       <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4077,13 +4038,13 @@
       <c r="H58" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="15" t="s">
@@ -4108,7 +4069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="10.15" customHeight="1">
       <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4134,13 +4095,13 @@
       <c r="H59" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="15" t="s">
+      <c r="K59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L59" s="15" t="s">
@@ -4165,7 +4126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="10.15" customHeight="1">
       <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4191,13 +4152,13 @@
       <c r="H60" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L60" s="15" t="s">
@@ -4222,7 +4183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="10.15" customHeight="1">
       <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4248,13 +4209,13 @@
       <c r="H61" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="15" t="s">
+      <c r="K61" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L61" s="15" t="s">
@@ -4279,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="10.15" customHeight="1">
       <c r="A62" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4305,13 +4266,13 @@
       <c r="H62" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L62" s="15" t="s">
@@ -4336,7 +4297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="10.15" customHeight="1">
       <c r="A63" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4362,13 +4323,13 @@
       <c r="H63" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="15" t="s">
+      <c r="K63" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L63" s="15" t="s">
@@ -4393,7 +4354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="10.15" customHeight="1">
       <c r="A64" s="13">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4419,13 +4380,13 @@
       <c r="H64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J64" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="15" t="s">
+      <c r="K64" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L64" s="15" t="s">
@@ -4450,7 +4411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="10.15" customHeight="1">
       <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4476,13 +4437,13 @@
       <c r="H65" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J65" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L65" s="15" t="s">
@@ -4507,7 +4468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="10.15" customHeight="1">
       <c r="A66" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4533,13 +4494,13 @@
       <c r="H66" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="15" t="s">
+      <c r="K66" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L66" s="15" t="s">
@@ -4564,7 +4525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="10.15" customHeight="1">
       <c r="A67" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4590,13 +4551,13 @@
       <c r="H67" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J67" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L67" s="15" t="s">
@@ -4621,7 +4582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="10.15" customHeight="1">
       <c r="A68" s="13">
         <f t="shared" ref="A68:A131" si="1">ROW()-2</f>
         <v>66</v>
@@ -4647,13 +4608,13 @@
       <c r="H68" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J68" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="15" t="s">
+      <c r="K68" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L68" s="15" t="s">
@@ -4678,7 +4639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="10.15" customHeight="1">
       <c r="A69" s="13">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4704,13 +4665,13 @@
       <c r="H69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="K69" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L69" s="15" t="s">
@@ -4735,7 +4696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="10.15" customHeight="1">
       <c r="A70" s="13">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4761,13 +4722,13 @@
       <c r="H70" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J70" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K70" s="15" t="s">
+      <c r="K70" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L70" s="15" t="s">
@@ -4792,7 +4753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="10.15" customHeight="1">
       <c r="A71" s="13">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4818,13 +4779,13 @@
       <c r="H71" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L71" s="15" t="s">
@@ -4849,7 +4810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="10.15" customHeight="1">
       <c r="A72" s="13">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4875,13 +4836,13 @@
       <c r="H72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J72" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="15" t="s">
+      <c r="K72" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L72" s="15" t="s">
@@ -4906,7 +4867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="10.15" customHeight="1">
       <c r="A73" s="13">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4932,13 +4893,13 @@
       <c r="H73" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J73" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="15" t="s">
+      <c r="K73" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L73" s="15" t="s">
@@ -4963,7 +4924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="10.15" customHeight="1">
       <c r="A74" s="13">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4989,13 +4950,13 @@
       <c r="H74" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="K74" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="15" t="s">
@@ -5020,7 +4981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="10.15" customHeight="1">
       <c r="A75" s="13">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5046,13 +5007,13 @@
       <c r="H75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="15" t="s">
+      <c r="K75" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L75" s="15" t="s">
@@ -5077,7 +5038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="10.15" customHeight="1">
       <c r="A76" s="13">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5103,13 +5064,13 @@
       <c r="H76" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L76" s="15" t="s">
@@ -5134,7 +5095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="10.15" customHeight="1">
       <c r="A77" s="13">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5160,13 +5121,13 @@
       <c r="H77" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="15" t="s">
+      <c r="K77" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L77" s="15" t="s">
@@ -5191,7 +5152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="10.15" customHeight="1">
       <c r="A78" s="13">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5217,13 +5178,13 @@
       <c r="H78" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="15" t="s">
+      <c r="K78" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L78" s="15" t="s">
@@ -5248,7 +5209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="10.15" customHeight="1">
       <c r="A79" s="13">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5274,13 +5235,13 @@
       <c r="H79" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="K79" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L79" s="15" t="s">
@@ -5305,7 +5266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="10.15" customHeight="1">
       <c r="A80" s="13">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5331,13 +5292,13 @@
       <c r="H80" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="15" t="s">
+      <c r="K80" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L80" s="15" t="s">
@@ -5362,7 +5323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="10.15" customHeight="1">
       <c r="A81" s="13">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5388,13 +5349,13 @@
       <c r="H81" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J81" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K81" s="15" t="s">
+      <c r="K81" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L81" s="15" t="s">
@@ -5419,7 +5380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="10.15" customHeight="1">
       <c r="A82" s="13">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5445,13 +5406,13 @@
       <c r="H82" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J82" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="15" t="s">
+      <c r="K82" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L82" s="15" t="s">
@@ -5476,7 +5437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="10.15" customHeight="1">
       <c r="A83" s="13">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5502,13 +5463,13 @@
       <c r="H83" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="15" t="s">
+      <c r="K83" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L83" s="15" t="s">
@@ -5533,7 +5494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="10.15" customHeight="1">
       <c r="A84" s="13">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5559,13 +5520,13 @@
       <c r="H84" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J84" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="15" t="s">
+      <c r="K84" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L84" s="15" t="s">
@@ -5590,7 +5551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="10.15" customHeight="1">
       <c r="A85" s="13">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5616,13 +5577,13 @@
       <c r="H85" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="15" t="s">
+      <c r="K85" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L85" s="15" t="s">
@@ -5647,7 +5608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="10.15" customHeight="1">
       <c r="A86" s="13">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5673,13 +5634,13 @@
       <c r="H86" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="15" t="s">
+      <c r="K86" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L86" s="15" t="s">
@@ -5704,7 +5665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="10.15" customHeight="1">
       <c r="A87" s="13">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5730,13 +5691,13 @@
       <c r="H87" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="K87" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L87" s="15" t="s">
@@ -5761,7 +5722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="10.15" customHeight="1">
       <c r="A88" s="13">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5787,13 +5748,13 @@
       <c r="H88" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J88" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K88" s="15" t="s">
+      <c r="K88" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L88" s="15" t="s">
@@ -5818,7 +5779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="10.15" customHeight="1">
       <c r="A89" s="13">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5844,13 +5805,13 @@
       <c r="H89" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K89" s="15" t="s">
+      <c r="K89" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L89" s="15" t="s">
@@ -5875,7 +5836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="10.15" customHeight="1">
       <c r="A90" s="13">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5901,13 +5862,13 @@
       <c r="H90" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="K90" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L90" s="15" t="s">
@@ -5932,7 +5893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="10.15" customHeight="1">
       <c r="A91" s="13">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5958,13 +5919,13 @@
       <c r="H91" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="K91" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L91" s="15" t="s">
@@ -5989,7 +5950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="10.15" customHeight="1">
       <c r="A92" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6015,13 +5976,13 @@
       <c r="H92" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="15" t="s">
+      <c r="K92" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L92" s="15" t="s">
@@ -6046,7 +6007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="10.15" customHeight="1">
       <c r="A93" s="13">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6072,13 +6033,13 @@
       <c r="H93" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="15" t="s">
+      <c r="K93" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L93" s="15" t="s">
@@ -6103,7 +6064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="10.15" customHeight="1">
       <c r="A94" s="13">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6129,13 +6090,13 @@
       <c r="H94" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="15" t="s">
+      <c r="K94" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L94" s="15" t="s">
@@ -6160,7 +6121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="10.15" customHeight="1">
       <c r="A95" s="13">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6186,13 +6147,13 @@
       <c r="H95" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="I95" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J95" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="K95" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L95" s="15" t="s">
@@ -6217,7 +6178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="10.15" customHeight="1">
       <c r="A96" s="13">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6243,13 +6204,13 @@
       <c r="H96" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K96" s="15" t="s">
+      <c r="K96" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L96" s="15" t="s">
@@ -6274,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" ht="10.15" customHeight="1">
       <c r="A97" s="13">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6300,13 +6261,13 @@
       <c r="H97" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J97" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="15" t="s">
+      <c r="K97" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L97" s="15" t="s">
@@ -6331,7 +6292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" ht="10.15" customHeight="1">
       <c r="A98" s="13">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6357,13 +6318,13 @@
       <c r="H98" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J98" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="K98" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L98" s="15" t="s">
@@ -6388,7 +6349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" ht="10.15" customHeight="1">
       <c r="A99" s="13">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6414,13 +6375,13 @@
       <c r="H99" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="15" t="s">
+      <c r="K99" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L99" s="15" t="s">
@@ -6445,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" ht="10.15" customHeight="1">
       <c r="A100" s="13">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6471,13 +6432,13 @@
       <c r="H100" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J100" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K100" s="15" t="s">
+      <c r="K100" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L100" s="15" t="s">
@@ -6502,7 +6463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" ht="10.15" customHeight="1">
       <c r="A101" s="13">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6528,13 +6489,13 @@
       <c r="H101" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="I101" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K101" s="15" t="s">
+      <c r="K101" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L101" s="15" t="s">
@@ -6559,7 +6520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" ht="10.15" customHeight="1">
       <c r="A102" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6585,13 +6546,13 @@
       <c r="H102" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="I102" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J102" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K102" s="15" t="s">
+      <c r="K102" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L102" s="15" t="s">
@@ -6616,7 +6577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" ht="10.15" customHeight="1">
       <c r="A103" s="13">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6642,13 +6603,13 @@
       <c r="H103" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K103" s="15" t="s">
+      <c r="K103" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L103" s="15" t="s">
@@ -6673,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" ht="10.15" customHeight="1">
       <c r="A104" s="13">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6699,13 +6660,13 @@
       <c r="H104" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J104" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="K104" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L104" s="15" t="s">
@@ -6730,7 +6691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" ht="10.15" customHeight="1">
       <c r="A105" s="13">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6756,13 +6717,13 @@
       <c r="H105" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I105" s="15" t="s">
+      <c r="I105" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K105" s="15" t="s">
+      <c r="K105" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L105" s="15" t="s">
@@ -6787,7 +6748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" ht="10.15" customHeight="1">
       <c r="A106" s="13">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6813,13 +6774,13 @@
       <c r="H106" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="15" t="s">
+      <c r="K106" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L106" s="15" t="s">
@@ -6844,7 +6805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" ht="10.15" customHeight="1">
       <c r="A107" s="13">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6870,13 +6831,13 @@
       <c r="H107" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="I107" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="15" t="s">
+      <c r="K107" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L107" s="15" t="s">
@@ -6901,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" ht="10.15" customHeight="1">
       <c r="A108" s="13">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6927,13 +6888,13 @@
       <c r="H108" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I108" s="15" t="s">
+      <c r="I108" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J108" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K108" s="15" t="s">
+      <c r="K108" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L108" s="15" t="s">
@@ -6958,7 +6919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" ht="10.15" customHeight="1">
       <c r="A109" s="13">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6984,13 +6945,13 @@
       <c r="H109" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J109" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K109" s="15" t="s">
+      <c r="K109" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L109" s="15" t="s">
@@ -7015,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" ht="10.15" customHeight="1">
       <c r="A110" s="13">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7041,13 +7002,13 @@
       <c r="H110" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J110" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K110" s="15" t="s">
+      <c r="K110" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L110" s="15" t="s">
@@ -7072,7 +7033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" ht="10.15" customHeight="1">
       <c r="A111" s="13">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7098,13 +7059,13 @@
       <c r="H111" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J111" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K111" s="15" t="s">
+      <c r="K111" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L111" s="15" t="s">
@@ -7129,7 +7090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" ht="10.15" customHeight="1">
       <c r="A112" s="13">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -7155,13 +7116,13 @@
       <c r="H112" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I112" s="15" t="s">
+      <c r="I112" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J112" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K112" s="15" t="s">
+      <c r="K112" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L112" s="15" t="s">
@@ -7186,7 +7147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" ht="10.15" customHeight="1">
       <c r="A113" s="13">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -7212,13 +7173,13 @@
       <c r="H113" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="I113" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J113" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="15" t="s">
+      <c r="K113" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L113" s="15" t="s">
@@ -7243,7 +7204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" ht="10.15" customHeight="1">
       <c r="A114" s="13">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -7269,13 +7230,13 @@
       <c r="H114" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I114" s="15" t="s">
+      <c r="I114" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K114" s="15" t="s">
+      <c r="K114" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L114" s="15" t="s">
@@ -7300,7 +7261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" ht="10.15" customHeight="1">
       <c r="A115" s="13">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -7326,13 +7287,13 @@
       <c r="H115" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I115" s="15" t="s">
+      <c r="I115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J115" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K115" s="15" t="s">
+      <c r="K115" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L115" s="15" t="s">
@@ -7357,7 +7318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" ht="10.15" customHeight="1">
       <c r="A116" s="13">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -7383,13 +7344,13 @@
       <c r="H116" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I116" s="15" t="s">
+      <c r="I116" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K116" s="15" t="s">
+      <c r="K116" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L116" s="15" t="s">
@@ -7414,7 +7375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" ht="10.15" customHeight="1">
       <c r="A117" s="13">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -7440,13 +7401,13 @@
       <c r="H117" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J117" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="15" t="s">
+      <c r="K117" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L117" s="15" t="s">
@@ -7471,7 +7432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" ht="10.15" customHeight="1">
       <c r="A118" s="13">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -7497,13 +7458,13 @@
       <c r="H118" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J118" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K118" s="15" t="s">
+      <c r="K118" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L118" s="15" t="s">
@@ -7528,7 +7489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" ht="10.15" customHeight="1">
       <c r="A119" s="13">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -7554,13 +7515,13 @@
       <c r="H119" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J119" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K119" s="15" t="s">
+      <c r="K119" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L119" s="15" t="s">
@@ -7585,7 +7546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" ht="10.15" customHeight="1">
       <c r="A120" s="13">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -7611,13 +7572,13 @@
       <c r="H120" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J120" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K120" s="15" t="s">
+      <c r="K120" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L120" s="15" t="s">
@@ -7642,7 +7603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" ht="10.15" customHeight="1">
       <c r="A121" s="13">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -7668,13 +7629,13 @@
       <c r="H121" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J121" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K121" s="15" t="s">
+      <c r="K121" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L121" s="15" t="s">
@@ -7699,7 +7660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" ht="10.15" customHeight="1">
       <c r="A122" s="13">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -7725,13 +7686,13 @@
       <c r="H122" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J122" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K122" s="15" t="s">
+      <c r="K122" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L122" s="15" t="s">
@@ -7756,7 +7717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" ht="10.15" customHeight="1">
       <c r="A123" s="13">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7782,13 +7743,13 @@
       <c r="H123" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="15" t="s">
+      <c r="I123" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K123" s="15" t="s">
+      <c r="K123" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L123" s="15" t="s">
@@ -7813,7 +7774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" ht="10.15" customHeight="1">
       <c r="A124" s="13">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7839,13 +7800,13 @@
       <c r="H124" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J124" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K124" s="15" t="s">
+      <c r="K124" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L124" s="15" t="s">
@@ -7870,7 +7831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" ht="10.15" customHeight="1">
       <c r="A125" s="13">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7896,13 +7857,13 @@
       <c r="H125" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J125" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K125" s="15" t="s">
+      <c r="K125" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L125" s="15" t="s">
@@ -7927,7 +7888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" ht="10.15" customHeight="1">
       <c r="A126" s="13">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7953,13 +7914,13 @@
       <c r="H126" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J126" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K126" s="15" t="s">
+      <c r="K126" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L126" s="15" t="s">
@@ -7984,7 +7945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" ht="10.15" customHeight="1">
       <c r="A127" s="13">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8010,13 +7971,13 @@
       <c r="H127" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I127" s="15" t="s">
+      <c r="I127" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J127" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K127" s="15" t="s">
+      <c r="K127" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L127" s="15" t="s">
@@ -8041,7 +8002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" ht="10.15" customHeight="1">
       <c r="A128" s="13">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8067,13 +8028,13 @@
       <c r="H128" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I128" s="15" t="s">
+      <c r="I128" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J128" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K128" s="15" t="s">
+      <c r="K128" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L128" s="15" t="s">
@@ -8098,7 +8059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" ht="10.15" customHeight="1">
       <c r="A129" s="13">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8124,13 +8085,13 @@
       <c r="H129" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J129" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K129" s="15" t="s">
+      <c r="K129" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L129" s="15" t="s">
@@ -8155,7 +8116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="10.15" customHeight="1">
       <c r="A130" s="13">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8181,13 +8142,13 @@
       <c r="H130" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I130" s="15" t="s">
+      <c r="I130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J130" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K130" s="15" t="s">
+      <c r="K130" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L130" s="15" t="s">
@@ -8212,7 +8173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" ht="10.15" customHeight="1">
       <c r="A131" s="13">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8238,13 +8199,13 @@
       <c r="H131" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J131" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K131" s="15" t="s">
+      <c r="K131" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L131" s="15" t="s">
@@ -8269,7 +8230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" ht="10.15" customHeight="1">
       <c r="A132" s="13">
         <f t="shared" ref="A132:A195" si="2">ROW()-2</f>
         <v>130</v>
@@ -8295,13 +8256,13 @@
       <c r="H132" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J132" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K132" s="15" t="s">
+      <c r="K132" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L132" s="15" t="s">
@@ -8326,7 +8287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" ht="10.15" customHeight="1">
       <c r="A133" s="13">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -8352,13 +8313,13 @@
       <c r="H133" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J133" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K133" s="15" t="s">
+      <c r="K133" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L133" s="15" t="s">
@@ -8383,7 +8344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" ht="10.15" customHeight="1">
       <c r="A134" s="13">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -8409,13 +8370,13 @@
       <c r="H134" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J134" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K134" s="15" t="s">
+      <c r="K134" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L134" s="15" t="s">
@@ -8440,7 +8401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" ht="10.15" customHeight="1">
       <c r="A135" s="13">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -8466,13 +8427,13 @@
       <c r="H135" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J135" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K135" s="15" t="s">
+      <c r="K135" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L135" s="15" t="s">
@@ -8497,7 +8458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" ht="10.15" customHeight="1">
       <c r="A136" s="13">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -8523,13 +8484,13 @@
       <c r="H136" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J136" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K136" s="15" t="s">
+      <c r="K136" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L136" s="15" t="s">
@@ -8554,7 +8515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" ht="10.15" customHeight="1">
       <c r="A137" s="13">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -8580,13 +8541,13 @@
       <c r="H137" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I137" s="15" t="s">
+      <c r="I137" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K137" s="15" t="s">
+      <c r="K137" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L137" s="15" t="s">
@@ -8611,7 +8572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="10.15" customHeight="1">
       <c r="A138" s="13">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -8637,13 +8598,13 @@
       <c r="H138" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J138" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K138" s="15" t="s">
+      <c r="K138" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L138" s="15" t="s">
@@ -8668,7 +8629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" ht="10.15" customHeight="1">
       <c r="A139" s="13">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -8694,13 +8655,13 @@
       <c r="H139" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J139" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K139" s="15" t="s">
+      <c r="K139" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L139" s="15" t="s">
@@ -8725,7 +8686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" ht="10.15" customHeight="1">
       <c r="A140" s="13">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -8751,13 +8712,13 @@
       <c r="H140" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I140" s="15" t="s">
+      <c r="I140" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K140" s="15" t="s">
+      <c r="K140" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L140" s="15" t="s">
@@ -8782,7 +8743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" ht="10.15" customHeight="1">
       <c r="A141" s="13">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -8808,13 +8769,13 @@
       <c r="H141" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J141" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K141" s="15" t="s">
+      <c r="K141" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L141" s="15" t="s">
@@ -8839,7 +8800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" ht="10.15" customHeight="1">
       <c r="A142" s="13">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -8865,13 +8826,13 @@
       <c r="H142" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J142" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K142" s="15" t="s">
+      <c r="K142" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L142" s="15" t="s">
@@ -8896,7 +8857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" ht="10.15" customHeight="1">
       <c r="A143" s="13">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -8922,13 +8883,13 @@
       <c r="H143" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I143" s="15" t="s">
+      <c r="I143" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J143" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K143" s="15" t="s">
+      <c r="K143" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L143" s="15" t="s">
@@ -8953,7 +8914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" ht="10.15" customHeight="1">
       <c r="A144" s="13">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -8979,13 +8940,13 @@
       <c r="H144" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I144" s="15" t="s">
+      <c r="I144" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J144" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K144" s="15" t="s">
+      <c r="K144" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L144" s="15" t="s">
@@ -9010,7 +8971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" ht="10.15" customHeight="1">
       <c r="A145" s="13">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -9036,13 +8997,13 @@
       <c r="H145" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I145" s="15" t="s">
+      <c r="I145" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J145" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K145" s="15" t="s">
+      <c r="K145" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L145" s="15" t="s">
@@ -9067,7 +9028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" ht="10.15" customHeight="1">
       <c r="A146" s="13">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -9093,13 +9054,13 @@
       <c r="H146" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I146" s="15" t="s">
+      <c r="I146" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J146" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K146" s="15" t="s">
+      <c r="K146" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L146" s="15" t="s">
@@ -9124,7 +9085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" ht="10.15" customHeight="1">
       <c r="A147" s="13">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -9150,13 +9111,13 @@
       <c r="H147" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I147" s="15" t="s">
+      <c r="I147" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J147" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K147" s="15" t="s">
+      <c r="K147" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L147" s="15" t="s">
@@ -9181,7 +9142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" ht="10.15" customHeight="1">
       <c r="A148" s="13">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -9207,13 +9168,13 @@
       <c r="H148" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I148" s="15" t="s">
+      <c r="I148" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J148" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K148" s="15" t="s">
+      <c r="K148" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L148" s="15" t="s">
@@ -9238,7 +9199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="10.15" customHeight="1">
       <c r="A149" s="13">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -9264,13 +9225,13 @@
       <c r="H149" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I149" s="15" t="s">
+      <c r="I149" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J149" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K149" s="15" t="s">
+      <c r="K149" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L149" s="15" t="s">
@@ -9295,7 +9256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" ht="10.15" customHeight="1">
       <c r="A150" s="13">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -9321,13 +9282,13 @@
       <c r="H150" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J150" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K150" s="15" t="s">
+      <c r="K150" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L150" s="15" t="s">
@@ -9352,7 +9313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" ht="10.15" customHeight="1">
       <c r="A151" s="13">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -9378,13 +9339,13 @@
       <c r="H151" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J151" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K151" s="15" t="s">
+      <c r="K151" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L151" s="15" t="s">
@@ -9409,7 +9370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" ht="10.15" customHeight="1">
       <c r="A152" s="13">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -9435,13 +9396,13 @@
       <c r="H152" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I152" s="15" t="s">
+      <c r="I152" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J152" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K152" s="15" t="s">
+      <c r="K152" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L152" s="15" t="s">
@@ -9466,7 +9427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" ht="10.15" customHeight="1">
       <c r="A153" s="13">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -9492,13 +9453,13 @@
       <c r="H153" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I153" s="15" t="s">
+      <c r="I153" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J153" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K153" s="15" t="s">
+      <c r="K153" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L153" s="15" t="s">
@@ -9523,7 +9484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" ht="10.15" customHeight="1">
       <c r="A154" s="13">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -9549,13 +9510,13 @@
       <c r="H154" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I154" s="15" t="s">
+      <c r="I154" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J154" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K154" s="15" t="s">
+      <c r="K154" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L154" s="15" t="s">
@@ -9580,7 +9541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" ht="10.15" customHeight="1">
       <c r="A155" s="13">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -9606,13 +9567,13 @@
       <c r="H155" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J155" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K155" s="15" t="s">
+      <c r="K155" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L155" s="15" t="s">
@@ -9637,7 +9598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" ht="10.15" customHeight="1">
       <c r="A156" s="13">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -9663,13 +9624,13 @@
       <c r="H156" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I156" s="15" t="s">
+      <c r="I156" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J156" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K156" s="15" t="s">
+      <c r="K156" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L156" s="15" t="s">
@@ -9694,7 +9655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" ht="10.15" customHeight="1">
       <c r="A157" s="13">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -9720,13 +9681,13 @@
       <c r="H157" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I157" s="15" t="s">
+      <c r="I157" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J157" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K157" s="15" t="s">
+      <c r="K157" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L157" s="15" t="s">
@@ -9751,7 +9712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" ht="10.15" customHeight="1">
       <c r="A158" s="13">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -9777,13 +9738,13 @@
       <c r="H158" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I158" s="15" t="s">
+      <c r="I158" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K158" s="15" t="s">
+      <c r="K158" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L158" s="15" t="s">
@@ -9808,7 +9769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" ht="10.15" customHeight="1">
       <c r="A159" s="13">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -9834,13 +9795,13 @@
       <c r="H159" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I159" s="15" t="s">
+      <c r="I159" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J159" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K159" s="15" t="s">
+      <c r="K159" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L159" s="15" t="s">
@@ -9865,7 +9826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" ht="10.15" customHeight="1">
       <c r="A160" s="13">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -9891,13 +9852,13 @@
       <c r="H160" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I160" s="15" t="s">
+      <c r="I160" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J160" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K160" s="15" t="s">
+      <c r="K160" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L160" s="15" t="s">
@@ -9922,7 +9883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="10.15" customHeight="1">
       <c r="A161" s="13">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -9948,13 +9909,13 @@
       <c r="H161" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I161" s="15" t="s">
+      <c r="I161" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J161" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K161" s="15" t="s">
+      <c r="K161" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L161" s="15" t="s">
@@ -9979,7 +9940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" ht="10.15" customHeight="1">
       <c r="A162" s="13">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -10005,13 +9966,13 @@
       <c r="H162" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I162" s="15" t="s">
+      <c r="I162" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J162" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K162" s="15" t="s">
+      <c r="K162" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L162" s="15" t="s">
@@ -10036,7 +9997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="10.15" customHeight="1">
       <c r="A163" s="13">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -10062,13 +10023,13 @@
       <c r="H163" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I163" s="15" t="s">
+      <c r="I163" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J163" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K163" s="15" t="s">
+      <c r="K163" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L163" s="15" t="s">
@@ -10093,7 +10054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" ht="10.15" customHeight="1">
       <c r="A164" s="13">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -10119,13 +10080,13 @@
       <c r="H164" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I164" s="15" t="s">
+      <c r="I164" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J164" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K164" s="15" t="s">
+      <c r="K164" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L164" s="15" t="s">
@@ -10150,7 +10111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="10.15" customHeight="1">
       <c r="A165" s="13">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -10176,13 +10137,13 @@
       <c r="H165" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I165" s="15" t="s">
+      <c r="I165" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J165" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K165" s="15" t="s">
+      <c r="K165" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L165" s="15" t="s">
@@ -10207,7 +10168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" ht="10.15" customHeight="1">
       <c r="A166" s="13">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -10233,13 +10194,13 @@
       <c r="H166" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I166" s="15" t="s">
+      <c r="I166" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J166" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K166" s="15" t="s">
+      <c r="K166" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L166" s="15" t="s">
@@ -10264,7 +10225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" ht="10.15" customHeight="1">
       <c r="A167" s="13">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -10290,13 +10251,13 @@
       <c r="H167" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I167" s="15" t="s">
+      <c r="I167" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J167" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K167" s="15" t="s">
+      <c r="K167" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L167" s="15" t="s">
@@ -10321,7 +10282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" ht="10.15" customHeight="1">
       <c r="A168" s="13">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -10347,13 +10308,13 @@
       <c r="H168" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I168" s="15" t="s">
+      <c r="I168" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J168" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K168" s="15" t="s">
+      <c r="K168" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L168" s="15" t="s">
@@ -10378,7 +10339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" ht="10.15" customHeight="1">
       <c r="A169" s="13">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -10404,13 +10365,13 @@
       <c r="H169" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I169" s="15" t="s">
+      <c r="I169" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J169" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K169" s="15" t="s">
+      <c r="K169" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L169" s="15" t="s">
@@ -10435,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" ht="10.15" customHeight="1">
       <c r="A170" s="13">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -10461,13 +10422,13 @@
       <c r="H170" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I170" s="15" t="s">
+      <c r="I170" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J170" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K170" s="15" t="s">
+      <c r="K170" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L170" s="15" t="s">
@@ -10492,7 +10453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" ht="10.15" customHeight="1">
       <c r="A171" s="13">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -10518,13 +10479,13 @@
       <c r="H171" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I171" s="15" t="s">
+      <c r="I171" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J171" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K171" s="15" t="s">
+      <c r="K171" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L171" s="15" t="s">
@@ -10549,7 +10510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" ht="10.15" customHeight="1">
       <c r="A172" s="13">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -10575,13 +10536,13 @@
       <c r="H172" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I172" s="15" t="s">
+      <c r="I172" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J172" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K172" s="15" t="s">
+      <c r="K172" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L172" s="15" t="s">
@@ -10606,7 +10567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="10.15" customHeight="1">
       <c r="A173" s="13">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -10632,13 +10593,13 @@
       <c r="H173" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I173" s="15" t="s">
+      <c r="I173" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J173" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K173" s="15" t="s">
+      <c r="K173" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L173" s="15" t="s">
@@ -10663,7 +10624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" ht="10.15" customHeight="1">
       <c r="A174" s="13">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -10689,13 +10650,13 @@
       <c r="H174" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I174" s="15" t="s">
+      <c r="I174" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J174" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K174" s="15" t="s">
+      <c r="K174" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L174" s="15" t="s">
@@ -10720,7 +10681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" ht="10.15" customHeight="1">
       <c r="A175" s="13">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -10746,13 +10707,13 @@
       <c r="H175" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I175" s="15" t="s">
+      <c r="I175" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J175" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K175" s="15" t="s">
+      <c r="K175" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L175" s="15" t="s">
@@ -10777,7 +10738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" ht="10.15" customHeight="1">
       <c r="A176" s="13">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -10803,13 +10764,13 @@
       <c r="H176" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I176" s="15" t="s">
+      <c r="I176" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J176" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K176" s="15" t="s">
+      <c r="K176" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L176" s="15" t="s">
@@ -10834,7 +10795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" ht="10.15" customHeight="1">
       <c r="A177" s="13">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -10860,13 +10821,13 @@
       <c r="H177" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I177" s="15" t="s">
+      <c r="I177" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J177" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K177" s="15" t="s">
+      <c r="K177" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L177" s="15" t="s">
@@ -10891,7 +10852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" ht="10.15" customHeight="1">
       <c r="A178" s="13">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -10917,13 +10878,13 @@
       <c r="H178" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I178" s="15" t="s">
+      <c r="I178" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J178" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K178" s="15" t="s">
+      <c r="K178" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L178" s="15" t="s">
@@ -10948,7 +10909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" ht="10.15" customHeight="1">
       <c r="A179" s="13">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -10974,13 +10935,13 @@
       <c r="H179" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I179" s="15" t="s">
+      <c r="I179" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J179" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K179" s="15" t="s">
+      <c r="K179" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L179" s="15" t="s">
@@ -11005,7 +10966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" ht="10.15" customHeight="1">
       <c r="A180" s="13">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -11031,13 +10992,13 @@
       <c r="H180" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I180" s="15" t="s">
+      <c r="I180" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J180" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K180" s="15" t="s">
+      <c r="K180" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L180" s="15" t="s">
@@ -11062,7 +11023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" ht="10.15" customHeight="1">
       <c r="A181" s="13">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -11088,13 +11049,13 @@
       <c r="H181" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I181" s="15" t="s">
+      <c r="I181" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J181" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K181" s="15" t="s">
+      <c r="K181" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L181" s="15" t="s">
@@ -11119,7 +11080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" ht="10.15" customHeight="1">
       <c r="A182" s="13">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -11145,13 +11106,13 @@
       <c r="H182" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I182" s="15" t="s">
+      <c r="I182" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J182" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K182" s="15" t="s">
+      <c r="K182" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L182" s="15" t="s">
@@ -11176,7 +11137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" ht="10.15" customHeight="1">
       <c r="A183" s="13">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -11202,13 +11163,13 @@
       <c r="H183" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I183" s="15" t="s">
+      <c r="I183" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J183" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K183" s="15" t="s">
+      <c r="K183" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L183" s="15" t="s">
@@ -11233,7 +11194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" ht="10.15" customHeight="1">
       <c r="A184" s="13">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -11259,13 +11220,13 @@
       <c r="H184" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I184" s="15" t="s">
+      <c r="I184" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J184" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K184" s="15" t="s">
+      <c r="K184" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L184" s="15" t="s">
@@ -11290,7 +11251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" ht="10.15" customHeight="1">
       <c r="A185" s="13">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -11316,13 +11277,13 @@
       <c r="H185" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I185" s="15" t="s">
+      <c r="I185" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J185" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K185" s="15" t="s">
+      <c r="K185" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L185" s="15" t="s">
@@ -11347,7 +11308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" ht="10.15" customHeight="1">
       <c r="A186" s="13">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -11373,13 +11334,13 @@
       <c r="H186" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I186" s="15" t="s">
+      <c r="I186" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J186" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K186" s="15" t="s">
+      <c r="K186" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L186" s="15" t="s">
@@ -11404,7 +11365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" ht="10.15" customHeight="1">
       <c r="A187" s="13">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -11430,13 +11391,13 @@
       <c r="H187" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I187" s="15" t="s">
+      <c r="I187" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J187" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K187" s="15" t="s">
+      <c r="K187" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L187" s="15" t="s">
@@ -11461,7 +11422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" ht="10.15" customHeight="1">
       <c r="A188" s="13">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -11487,13 +11448,13 @@
       <c r="H188" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I188" s="15" t="s">
+      <c r="I188" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J188" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K188" s="15" t="s">
+      <c r="K188" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L188" s="15" t="s">
@@ -11518,7 +11479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" ht="10.15" customHeight="1">
       <c r="A189" s="13">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -11544,13 +11505,13 @@
       <c r="H189" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I189" s="15" t="s">
+      <c r="I189" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J189" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K189" s="15" t="s">
+      <c r="K189" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L189" s="15" t="s">
@@ -11575,7 +11536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" ht="10.15" customHeight="1">
       <c r="A190" s="13">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -11601,13 +11562,13 @@
       <c r="H190" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I190" s="15" t="s">
+      <c r="I190" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J190" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K190" s="15" t="s">
+      <c r="K190" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L190" s="15" t="s">
@@ -11632,7 +11593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" ht="10.15" customHeight="1">
       <c r="A191" s="13">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -11658,13 +11619,13 @@
       <c r="H191" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I191" s="15" t="s">
+      <c r="I191" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J191" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K191" s="15" t="s">
+      <c r="K191" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L191" s="15" t="s">
@@ -11689,7 +11650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" ht="10.15" customHeight="1">
       <c r="A192" s="13">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -11715,13 +11676,13 @@
       <c r="H192" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I192" s="15" t="s">
+      <c r="I192" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J192" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K192" s="15" t="s">
+      <c r="K192" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L192" s="15" t="s">
@@ -11746,7 +11707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" ht="10.15" customHeight="1">
       <c r="A193" s="13">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -11772,13 +11733,13 @@
       <c r="H193" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I193" s="15" t="s">
+      <c r="I193" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J193" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K193" s="15" t="s">
+      <c r="K193" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L193" s="15" t="s">
@@ -11803,7 +11764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" ht="10.15" customHeight="1">
       <c r="A194" s="13">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -11829,13 +11790,13 @@
       <c r="H194" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I194" s="15" t="s">
+      <c r="I194" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J194" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K194" s="15" t="s">
+      <c r="K194" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L194" s="15" t="s">
@@ -11860,7 +11821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" ht="10.15" customHeight="1">
       <c r="A195" s="13">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -11886,13 +11847,13 @@
       <c r="H195" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I195" s="15" t="s">
+      <c r="I195" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J195" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K195" s="15" t="s">
+      <c r="K195" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L195" s="15" t="s">
@@ -11917,7 +11878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" ht="10.15" customHeight="1">
       <c r="A196" s="13">
         <f t="shared" ref="A196:A202" si="3">ROW()-2</f>
         <v>194</v>
@@ -11943,13 +11904,13 @@
       <c r="H196" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I196" s="15" t="s">
+      <c r="I196" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J196" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K196" s="15" t="s">
+      <c r="K196" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L196" s="15" t="s">
@@ -11974,7 +11935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" ht="10.15" customHeight="1">
       <c r="A197" s="13">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -12000,13 +11961,13 @@
       <c r="H197" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I197" s="15" t="s">
+      <c r="I197" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J197" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K197" s="15" t="s">
+      <c r="K197" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L197" s="15" t="s">
@@ -12031,7 +11992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" ht="10.15" customHeight="1">
       <c r="A198" s="13">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -12057,13 +12018,13 @@
       <c r="H198" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I198" s="15" t="s">
+      <c r="I198" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J198" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K198" s="15" t="s">
+      <c r="K198" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L198" s="15" t="s">
@@ -12088,7 +12049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" ht="10.15" customHeight="1">
       <c r="A199" s="13">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -12114,13 +12075,13 @@
       <c r="H199" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I199" s="15" t="s">
+      <c r="I199" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J199" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K199" s="15" t="s">
+      <c r="K199" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L199" s="15" t="s">
@@ -12145,7 +12106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" ht="10.15" customHeight="1">
       <c r="A200" s="13">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -12171,13 +12132,13 @@
       <c r="H200" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I200" s="15" t="s">
+      <c r="I200" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J200" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K200" s="15" t="s">
+      <c r="K200" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L200" s="15" t="s">
@@ -12202,7 +12163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" ht="10.15" customHeight="1">
       <c r="A201" s="13">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -12228,13 +12189,13 @@
       <c r="H201" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I201" s="15" t="s">
+      <c r="I201" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J201" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K201" s="15" t="s">
+      <c r="K201" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L201" s="15" t="s">
@@ -12259,7 +12220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" ht="10.15" customHeight="1">
       <c r="A202" s="13">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -12285,13 +12246,13 @@
       <c r="H202" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I202" s="15" t="s">
+      <c r="I202" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J202" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K202" s="15" t="s">
+      <c r="K202" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L202" s="15" t="s">
@@ -12371,15 +12332,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
@@ -12396,14 +12357,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
@@ -12420,7 +12381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -12431,7 +12392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
@@ -12442,7 +12403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -12453,7 +12414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
@@ -12464,7 +12425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -12473,7 +12434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>14</v>
@@ -12482,19 +12443,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="10.5">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>

--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -11,15 +11,15 @@
     <sheet name="setting" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$R$202</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$S$202</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Main!$A:$D,Main!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="55">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -298,6 +298,13 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -775,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:S202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -793,11 +800,12 @@
     <col min="5" max="8" width="13.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
-    <col min="11" max="18" width="7.375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="2.625" style="2"/>
+    <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
+    <col min="12" max="19" width="8.25" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" customHeight="1">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -820,8 +828,9 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="21">
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="26.25" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="R2" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S2" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="10.15" customHeight="1">
       <c r="A3" s="13">
         <f>ROW()-2</f>
         <v>1</v>
@@ -933,8 +945,11 @@
       <c r="R3" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S3" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="10.15" customHeight="1">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A67" si="0">ROW()-2</f>
         <v>2</v>
@@ -990,8 +1005,11 @@
       <c r="R4" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S4" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="10.15" customHeight="1">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1047,8 +1065,11 @@
       <c r="R5" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S5" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="10.15" customHeight="1">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1104,8 +1125,11 @@
       <c r="R6" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="10.15" customHeight="1">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1161,8 +1185,11 @@
       <c r="R7" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S7" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="10.15" customHeight="1">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1218,8 +1245,11 @@
       <c r="R8" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="10.15" customHeight="1">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1275,8 +1305,11 @@
       <c r="R9" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S9" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="10.15" customHeight="1">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1332,8 +1365,11 @@
       <c r="R10" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S10" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="10.15" customHeight="1">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1389,8 +1425,11 @@
       <c r="R11" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="10.15" customHeight="1">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1446,8 +1485,11 @@
       <c r="R12" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S12" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="10.15" customHeight="1">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1503,8 +1545,11 @@
       <c r="R13" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S13" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="10.15" customHeight="1">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1560,8 +1605,11 @@
       <c r="R14" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S14" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="10.15" customHeight="1">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1617,8 +1665,11 @@
       <c r="R15" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="10.15" customHeight="1">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1674,8 +1725,11 @@
       <c r="R16" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="10.15" customHeight="1">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1731,8 +1785,11 @@
       <c r="R17" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S17" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="10.15" customHeight="1">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1788,8 +1845,11 @@
       <c r="R18" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S18" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="10.15" customHeight="1">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1845,8 +1905,11 @@
       <c r="R19" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="10.15" customHeight="1">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1902,8 +1965,11 @@
       <c r="R20" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S20" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="10.15" customHeight="1">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1959,8 +2025,11 @@
       <c r="R21" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="10.15" customHeight="1">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2016,8 +2085,11 @@
       <c r="R22" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S22" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="10.15" customHeight="1">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2073,8 +2145,11 @@
       <c r="R23" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S23" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="10.15" customHeight="1">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2130,8 +2205,11 @@
       <c r="R24" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S24" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="10.15" customHeight="1">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2187,8 +2265,11 @@
       <c r="R25" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S25" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="10.15" customHeight="1">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2244,8 +2325,11 @@
       <c r="R26" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S26" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="10.15" customHeight="1">
       <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2301,8 +2385,11 @@
       <c r="R27" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S27" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="10.15" customHeight="1">
       <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2358,8 +2445,11 @@
       <c r="R28" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S28" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="10.15" customHeight="1">
       <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2415,8 +2505,11 @@
       <c r="R29" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S29" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="10.15" customHeight="1">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2472,8 +2565,11 @@
       <c r="R30" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S30" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="10.15" customHeight="1">
       <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2529,8 +2625,11 @@
       <c r="R31" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S31" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="10.15" customHeight="1">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2586,8 +2685,11 @@
       <c r="R32" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S32" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="10.15" customHeight="1">
       <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2643,8 +2745,11 @@
       <c r="R33" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S33" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="10.15" customHeight="1">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2700,8 +2805,11 @@
       <c r="R34" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S34" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="10.15" customHeight="1">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2757,8 +2865,11 @@
       <c r="R35" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S35" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="10.15" customHeight="1">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2814,8 +2925,11 @@
       <c r="R36" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S36" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="10.15" customHeight="1">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2871,8 +2985,11 @@
       <c r="R37" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S37" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="10.15" customHeight="1">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2928,8 +3045,11 @@
       <c r="R38" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S38" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="10.15" customHeight="1">
       <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2985,8 +3105,11 @@
       <c r="R39" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S39" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="10.15" customHeight="1">
       <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3042,8 +3165,11 @@
       <c r="R40" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S40" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="10.15" customHeight="1">
       <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3099,8 +3225,11 @@
       <c r="R41" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S41" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="10.15" customHeight="1">
       <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3156,8 +3285,11 @@
       <c r="R42" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S42" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="10.15" customHeight="1">
       <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3213,8 +3345,11 @@
       <c r="R43" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S43" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="10.15" customHeight="1">
       <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3270,8 +3405,11 @@
       <c r="R44" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S44" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="10.15" customHeight="1">
       <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3327,8 +3465,11 @@
       <c r="R45" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S45" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="10.15" customHeight="1">
       <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3384,8 +3525,11 @@
       <c r="R46" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S46" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="10.15" customHeight="1">
       <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3441,8 +3585,11 @@
       <c r="R47" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S47" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="10.15" customHeight="1">
       <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3498,8 +3645,11 @@
       <c r="R48" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S48" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="10.15" customHeight="1">
       <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3555,8 +3705,11 @@
       <c r="R49" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S49" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="10.15" customHeight="1">
       <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3612,8 +3765,11 @@
       <c r="R50" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S50" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="10.15" customHeight="1">
       <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3669,8 +3825,11 @@
       <c r="R51" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S51" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="10.15" customHeight="1">
       <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3726,8 +3885,11 @@
       <c r="R52" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S52" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="10.15" customHeight="1">
       <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3783,8 +3945,11 @@
       <c r="R53" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S53" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="10.15" customHeight="1">
       <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3840,8 +4005,11 @@
       <c r="R54" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S54" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="10.15" customHeight="1">
       <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3897,8 +4065,11 @@
       <c r="R55" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S55" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="10.15" customHeight="1">
       <c r="A56" s="13">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3954,8 +4125,11 @@
       <c r="R56" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S56" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="10.15" customHeight="1">
       <c r="A57" s="13">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4011,8 +4185,11 @@
       <c r="R57" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S57" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="10.15" customHeight="1">
       <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4068,8 +4245,11 @@
       <c r="R58" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S58" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="10.15" customHeight="1">
       <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4125,8 +4305,11 @@
       <c r="R59" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S59" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="10.15" customHeight="1">
       <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4182,8 +4365,11 @@
       <c r="R60" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S60" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="10.15" customHeight="1">
       <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4239,8 +4425,11 @@
       <c r="R61" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S61" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="10.15" customHeight="1">
       <c r="A62" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4296,8 +4485,11 @@
       <c r="R62" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S62" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="10.15" customHeight="1">
       <c r="A63" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4353,8 +4545,11 @@
       <c r="R63" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S63" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="10.15" customHeight="1">
       <c r="A64" s="13">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4410,8 +4605,11 @@
       <c r="R64" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S64" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="10.15" customHeight="1">
       <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4467,8 +4665,11 @@
       <c r="R65" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S65" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="10.15" customHeight="1">
       <c r="A66" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4524,8 +4725,11 @@
       <c r="R66" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S66" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="10.15" customHeight="1">
       <c r="A67" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4581,8 +4785,11 @@
       <c r="R67" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S67" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="10.15" customHeight="1">
       <c r="A68" s="13">
         <f t="shared" ref="A68:A131" si="1">ROW()-2</f>
         <v>66</v>
@@ -4638,8 +4845,11 @@
       <c r="R68" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S68" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="10.15" customHeight="1">
       <c r="A69" s="13">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4695,8 +4905,11 @@
       <c r="R69" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S69" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="10.15" customHeight="1">
       <c r="A70" s="13">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4752,8 +4965,11 @@
       <c r="R70" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S70" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="10.15" customHeight="1">
       <c r="A71" s="13">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4809,8 +5025,11 @@
       <c r="R71" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S71" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="10.15" customHeight="1">
       <c r="A72" s="13">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4866,8 +5085,11 @@
       <c r="R72" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S72" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="10.15" customHeight="1">
       <c r="A73" s="13">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4923,8 +5145,11 @@
       <c r="R73" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S73" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="10.15" customHeight="1">
       <c r="A74" s="13">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4980,8 +5205,11 @@
       <c r="R74" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S74" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="10.15" customHeight="1">
       <c r="A75" s="13">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5037,8 +5265,11 @@
       <c r="R75" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S75" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="10.15" customHeight="1">
       <c r="A76" s="13">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5094,8 +5325,11 @@
       <c r="R76" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S76" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="10.15" customHeight="1">
       <c r="A77" s="13">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5151,8 +5385,11 @@
       <c r="R77" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S77" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="10.15" customHeight="1">
       <c r="A78" s="13">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5208,8 +5445,11 @@
       <c r="R78" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S78" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="10.15" customHeight="1">
       <c r="A79" s="13">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5265,8 +5505,11 @@
       <c r="R79" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S79" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="10.15" customHeight="1">
       <c r="A80" s="13">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5322,8 +5565,11 @@
       <c r="R80" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S80" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="10.15" customHeight="1">
       <c r="A81" s="13">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5379,8 +5625,11 @@
       <c r="R81" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S81" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="10.15" customHeight="1">
       <c r="A82" s="13">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5436,8 +5685,11 @@
       <c r="R82" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S82" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="10.15" customHeight="1">
       <c r="A83" s="13">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5493,8 +5745,11 @@
       <c r="R83" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S83" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="10.15" customHeight="1">
       <c r="A84" s="13">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5550,8 +5805,11 @@
       <c r="R84" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S84" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="10.15" customHeight="1">
       <c r="A85" s="13">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5607,8 +5865,11 @@
       <c r="R85" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S85" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="10.15" customHeight="1">
       <c r="A86" s="13">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5664,8 +5925,11 @@
       <c r="R86" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S86" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="10.15" customHeight="1">
       <c r="A87" s="13">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5721,8 +5985,11 @@
       <c r="R87" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S87" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="10.15" customHeight="1">
       <c r="A88" s="13">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5778,8 +6045,11 @@
       <c r="R88" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S88" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="10.15" customHeight="1">
       <c r="A89" s="13">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5835,8 +6105,11 @@
       <c r="R89" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S89" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="10.15" customHeight="1">
       <c r="A90" s="13">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5892,8 +6165,11 @@
       <c r="R90" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S90" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="10.15" customHeight="1">
       <c r="A91" s="13">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5949,8 +6225,11 @@
       <c r="R91" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S91" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="10.15" customHeight="1">
       <c r="A92" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6006,8 +6285,11 @@
       <c r="R92" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S92" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="10.15" customHeight="1">
       <c r="A93" s="13">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6063,8 +6345,11 @@
       <c r="R93" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S93" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="10.15" customHeight="1">
       <c r="A94" s="13">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6120,8 +6405,11 @@
       <c r="R94" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S94" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="10.15" customHeight="1">
       <c r="A95" s="13">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6177,8 +6465,11 @@
       <c r="R95" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S95" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="10.15" customHeight="1">
       <c r="A96" s="13">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6234,8 +6525,11 @@
       <c r="R96" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S96" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="10.15" customHeight="1">
       <c r="A97" s="13">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6291,8 +6585,11 @@
       <c r="R97" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S97" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="10.15" customHeight="1">
       <c r="A98" s="13">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6348,8 +6645,11 @@
       <c r="R98" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S98" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="10.15" customHeight="1">
       <c r="A99" s="13">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6405,8 +6705,11 @@
       <c r="R99" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S99" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="10.15" customHeight="1">
       <c r="A100" s="13">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6462,8 +6765,11 @@
       <c r="R100" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S100" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="10.15" customHeight="1">
       <c r="A101" s="13">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6519,8 +6825,11 @@
       <c r="R101" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S101" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="10.15" customHeight="1">
       <c r="A102" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6576,8 +6885,11 @@
       <c r="R102" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S102" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="10.15" customHeight="1">
       <c r="A103" s="13">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6633,8 +6945,11 @@
       <c r="R103" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S103" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="10.15" customHeight="1">
       <c r="A104" s="13">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6690,8 +7005,11 @@
       <c r="R104" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S104" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="10.15" customHeight="1">
       <c r="A105" s="13">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6747,8 +7065,11 @@
       <c r="R105" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S105" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="10.15" customHeight="1">
       <c r="A106" s="13">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6804,8 +7125,11 @@
       <c r="R106" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S106" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="10.15" customHeight="1">
       <c r="A107" s="13">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6861,8 +7185,11 @@
       <c r="R107" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S107" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="10.15" customHeight="1">
       <c r="A108" s="13">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6918,8 +7245,11 @@
       <c r="R108" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S108" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="10.15" customHeight="1">
       <c r="A109" s="13">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6975,8 +7305,11 @@
       <c r="R109" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S109" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="10.15" customHeight="1">
       <c r="A110" s="13">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7032,8 +7365,11 @@
       <c r="R110" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S110" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="10.15" customHeight="1">
       <c r="A111" s="13">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7089,8 +7425,11 @@
       <c r="R111" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S111" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="10.15" customHeight="1">
       <c r="A112" s="13">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -7146,8 +7485,11 @@
       <c r="R112" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S112" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="10.15" customHeight="1">
       <c r="A113" s="13">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -7203,8 +7545,11 @@
       <c r="R113" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S113" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="10.15" customHeight="1">
       <c r="A114" s="13">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -7260,8 +7605,11 @@
       <c r="R114" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S114" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="10.15" customHeight="1">
       <c r="A115" s="13">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -7317,8 +7665,11 @@
       <c r="R115" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S115" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="10.15" customHeight="1">
       <c r="A116" s="13">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -7374,8 +7725,11 @@
       <c r="R116" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S116" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="10.15" customHeight="1">
       <c r="A117" s="13">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -7431,8 +7785,11 @@
       <c r="R117" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S117" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="10.15" customHeight="1">
       <c r="A118" s="13">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -7488,8 +7845,11 @@
       <c r="R118" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S118" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="10.15" customHeight="1">
       <c r="A119" s="13">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -7545,8 +7905,11 @@
       <c r="R119" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S119" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="10.15" customHeight="1">
       <c r="A120" s="13">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -7602,8 +7965,11 @@
       <c r="R120" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S120" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="10.15" customHeight="1">
       <c r="A121" s="13">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -7659,8 +8025,11 @@
       <c r="R121" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S121" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="10.15" customHeight="1">
       <c r="A122" s="13">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -7716,8 +8085,11 @@
       <c r="R122" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S122" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="10.15" customHeight="1">
       <c r="A123" s="13">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7773,8 +8145,11 @@
       <c r="R123" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S123" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="10.15" customHeight="1">
       <c r="A124" s="13">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7830,8 +8205,11 @@
       <c r="R124" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S124" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="10.15" customHeight="1">
       <c r="A125" s="13">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7887,8 +8265,11 @@
       <c r="R125" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S125" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="10.15" customHeight="1">
       <c r="A126" s="13">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7944,8 +8325,11 @@
       <c r="R126" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S126" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="10.15" customHeight="1">
       <c r="A127" s="13">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8001,8 +8385,11 @@
       <c r="R127" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S127" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="10.15" customHeight="1">
       <c r="A128" s="13">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8058,8 +8445,11 @@
       <c r="R128" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S128" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="10.15" customHeight="1">
       <c r="A129" s="13">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8115,8 +8505,11 @@
       <c r="R129" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S129" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="10.15" customHeight="1">
       <c r="A130" s="13">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8172,8 +8565,11 @@
       <c r="R130" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S130" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="10.15" customHeight="1">
       <c r="A131" s="13">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8229,8 +8625,11 @@
       <c r="R131" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S131" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="10.15" customHeight="1">
       <c r="A132" s="13">
         <f t="shared" ref="A132:A195" si="2">ROW()-2</f>
         <v>130</v>
@@ -8286,8 +8685,11 @@
       <c r="R132" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S132" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="10.15" customHeight="1">
       <c r="A133" s="13">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -8343,8 +8745,11 @@
       <c r="R133" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S133" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="10.15" customHeight="1">
       <c r="A134" s="13">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -8400,8 +8805,11 @@
       <c r="R134" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S134" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="10.15" customHeight="1">
       <c r="A135" s="13">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -8457,8 +8865,11 @@
       <c r="R135" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S135" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="10.15" customHeight="1">
       <c r="A136" s="13">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -8514,8 +8925,11 @@
       <c r="R136" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S136" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="10.15" customHeight="1">
       <c r="A137" s="13">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -8571,8 +8985,11 @@
       <c r="R137" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S137" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="10.15" customHeight="1">
       <c r="A138" s="13">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -8628,8 +9045,11 @@
       <c r="R138" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S138" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="10.15" customHeight="1">
       <c r="A139" s="13">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -8685,8 +9105,11 @@
       <c r="R139" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S139" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="10.15" customHeight="1">
       <c r="A140" s="13">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -8742,8 +9165,11 @@
       <c r="R140" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S140" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="10.15" customHeight="1">
       <c r="A141" s="13">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -8799,8 +9225,11 @@
       <c r="R141" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S141" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="10.15" customHeight="1">
       <c r="A142" s="13">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -8856,8 +9285,11 @@
       <c r="R142" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S142" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="10.15" customHeight="1">
       <c r="A143" s="13">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -8913,8 +9345,11 @@
       <c r="R143" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S143" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="10.15" customHeight="1">
       <c r="A144" s="13">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -8970,8 +9405,11 @@
       <c r="R144" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S144" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="10.15" customHeight="1">
       <c r="A145" s="13">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -9027,8 +9465,11 @@
       <c r="R145" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S145" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="10.15" customHeight="1">
       <c r="A146" s="13">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -9084,8 +9525,11 @@
       <c r="R146" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S146" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="10.15" customHeight="1">
       <c r="A147" s="13">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -9141,8 +9585,11 @@
       <c r="R147" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S147" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="10.15" customHeight="1">
       <c r="A148" s="13">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -9198,8 +9645,11 @@
       <c r="R148" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S148" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="10.15" customHeight="1">
       <c r="A149" s="13">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -9255,8 +9705,11 @@
       <c r="R149" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S149" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="10.15" customHeight="1">
       <c r="A150" s="13">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -9312,8 +9765,11 @@
       <c r="R150" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S150" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="10.15" customHeight="1">
       <c r="A151" s="13">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -9369,8 +9825,11 @@
       <c r="R151" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S151" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="10.15" customHeight="1">
       <c r="A152" s="13">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -9426,8 +9885,11 @@
       <c r="R152" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S152" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="10.15" customHeight="1">
       <c r="A153" s="13">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -9483,8 +9945,11 @@
       <c r="R153" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S153" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="10.15" customHeight="1">
       <c r="A154" s="13">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -9540,8 +10005,11 @@
       <c r="R154" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S154" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="10.15" customHeight="1">
       <c r="A155" s="13">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -9597,8 +10065,11 @@
       <c r="R155" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S155" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="10.15" customHeight="1">
       <c r="A156" s="13">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -9654,8 +10125,11 @@
       <c r="R156" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S156" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="10.15" customHeight="1">
       <c r="A157" s="13">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -9711,8 +10185,11 @@
       <c r="R157" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S157" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="10.15" customHeight="1">
       <c r="A158" s="13">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -9768,8 +10245,11 @@
       <c r="R158" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S158" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="10.15" customHeight="1">
       <c r="A159" s="13">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -9825,8 +10305,11 @@
       <c r="R159" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S159" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="10.15" customHeight="1">
       <c r="A160" s="13">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -9882,8 +10365,11 @@
       <c r="R160" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S160" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="10.15" customHeight="1">
       <c r="A161" s="13">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -9939,8 +10425,11 @@
       <c r="R161" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S161" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="10.15" customHeight="1">
       <c r="A162" s="13">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9996,8 +10485,11 @@
       <c r="R162" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S162" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="10.15" customHeight="1">
       <c r="A163" s="13">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -10053,8 +10545,11 @@
       <c r="R163" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S163" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="10.15" customHeight="1">
       <c r="A164" s="13">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -10110,8 +10605,11 @@
       <c r="R164" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S164" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="10.15" customHeight="1">
       <c r="A165" s="13">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -10167,8 +10665,11 @@
       <c r="R165" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S165" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="10.15" customHeight="1">
       <c r="A166" s="13">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -10224,8 +10725,11 @@
       <c r="R166" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S166" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="10.15" customHeight="1">
       <c r="A167" s="13">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -10281,8 +10785,11 @@
       <c r="R167" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S167" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="10.15" customHeight="1">
       <c r="A168" s="13">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -10338,8 +10845,11 @@
       <c r="R168" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S168" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="10.15" customHeight="1">
       <c r="A169" s="13">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -10395,8 +10905,11 @@
       <c r="R169" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S169" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="10.15" customHeight="1">
       <c r="A170" s="13">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -10452,8 +10965,11 @@
       <c r="R170" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S170" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="10.15" customHeight="1">
       <c r="A171" s="13">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -10509,8 +11025,11 @@
       <c r="R171" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S171" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="10.15" customHeight="1">
       <c r="A172" s="13">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -10566,8 +11085,11 @@
       <c r="R172" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S172" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="10.15" customHeight="1">
       <c r="A173" s="13">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -10623,8 +11145,11 @@
       <c r="R173" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S173" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="10.15" customHeight="1">
       <c r="A174" s="13">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -10680,8 +11205,11 @@
       <c r="R174" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S174" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="10.15" customHeight="1">
       <c r="A175" s="13">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -10737,8 +11265,11 @@
       <c r="R175" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S175" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="10.15" customHeight="1">
       <c r="A176" s="13">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -10794,8 +11325,11 @@
       <c r="R176" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S176" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="10.15" customHeight="1">
       <c r="A177" s="13">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -10851,8 +11385,11 @@
       <c r="R177" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S177" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="10.15" customHeight="1">
       <c r="A178" s="13">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -10908,8 +11445,11 @@
       <c r="R178" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S178" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="10.15" customHeight="1">
       <c r="A179" s="13">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -10965,8 +11505,11 @@
       <c r="R179" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S179" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="10.15" customHeight="1">
       <c r="A180" s="13">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -11022,8 +11565,11 @@
       <c r="R180" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S180" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="10.15" customHeight="1">
       <c r="A181" s="13">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -11079,8 +11625,11 @@
       <c r="R181" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S181" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="10.15" customHeight="1">
       <c r="A182" s="13">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -11136,8 +11685,11 @@
       <c r="R182" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S182" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="10.15" customHeight="1">
       <c r="A183" s="13">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -11193,8 +11745,11 @@
       <c r="R183" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S183" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="10.15" customHeight="1">
       <c r="A184" s="13">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -11250,8 +11805,11 @@
       <c r="R184" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S184" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="10.15" customHeight="1">
       <c r="A185" s="13">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -11307,8 +11865,11 @@
       <c r="R185" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S185" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="10.15" customHeight="1">
       <c r="A186" s="13">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -11364,8 +11925,11 @@
       <c r="R186" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S186" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="10.15" customHeight="1">
       <c r="A187" s="13">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -11421,8 +11985,11 @@
       <c r="R187" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S187" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="10.15" customHeight="1">
       <c r="A188" s="13">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -11478,8 +12045,11 @@
       <c r="R188" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S188" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="10.15" customHeight="1">
       <c r="A189" s="13">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -11535,8 +12105,11 @@
       <c r="R189" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S189" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="10.15" customHeight="1">
       <c r="A190" s="13">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -11592,8 +12165,11 @@
       <c r="R190" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S190" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="10.15" customHeight="1">
       <c r="A191" s="13">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -11649,8 +12225,11 @@
       <c r="R191" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S191" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="10.15" customHeight="1">
       <c r="A192" s="13">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -11706,8 +12285,11 @@
       <c r="R192" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S192" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="10.15" customHeight="1">
       <c r="A193" s="13">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -11763,8 +12345,11 @@
       <c r="R193" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S193" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="10.15" customHeight="1">
       <c r="A194" s="13">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -11820,8 +12405,11 @@
       <c r="R194" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S194" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="10.15" customHeight="1">
       <c r="A195" s="13">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -11877,8 +12465,11 @@
       <c r="R195" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S195" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="10.15" customHeight="1">
       <c r="A196" s="13">
         <f t="shared" ref="A196:A202" si="3">ROW()-2</f>
         <v>194</v>
@@ -11934,8 +12525,11 @@
       <c r="R196" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S196" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="10.15" customHeight="1">
       <c r="A197" s="13">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -11991,8 +12585,11 @@
       <c r="R197" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S197" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="10.15" customHeight="1">
       <c r="A198" s="13">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -12048,8 +12645,11 @@
       <c r="R198" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S198" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="10.15" customHeight="1">
       <c r="A199" s="13">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -12105,8 +12705,11 @@
       <c r="R199" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S199" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="10.15" customHeight="1">
       <c r="A200" s="13">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -12162,8 +12765,11 @@
       <c r="R200" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S200" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="10.15" customHeight="1">
       <c r="A201" s="13">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -12219,8 +12825,11 @@
       <c r="R201" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" ht="10.15" customHeight="1">
+      <c r="S201" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="10.15" customHeight="1">
       <c r="A202" s="13">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -12274,6 +12883,9 @@
         <v>22</v>
       </c>
       <c r="R202" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S202" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -12292,7 +12904,7 @@
           <x14:formula1>
             <xm:f>setting!$F$3:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:R202</xm:sqref>
+          <xm:sqref>L3:S202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>

--- a/src/gen/resources/template.xlsx
+++ b/src/gen/resources/template.xlsx
@@ -785,10 +785,10 @@
   <dimension ref="A1:S202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
